--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/16.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/16.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1980156103032248</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.599230858435961</v>
+        <v>-1.600301191438446</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1527925112734999</v>
+        <v>0.1513349695671755</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2454248823008463</v>
+        <v>-0.2451793353179234</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2092542089329474</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.531699142055677</v>
+        <v>-1.532644340538018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1013944908865473</v>
+        <v>0.09987556243449212</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2486941200157878</v>
+        <v>-0.2485807906390541</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2176197023639759</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.487004869106344</v>
+        <v>-1.487826507087663</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0970895485897899</v>
+        <v>0.09562885884522286</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2587898786598104</v>
+        <v>-0.2583664675161805</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2199174282612565</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.556268006520059</v>
+        <v>-1.557393430191789</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1246065508683685</v>
+        <v>0.1222754285497222</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355825407353531</v>
+        <v>-0.2354172687276165</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2215165766706876</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.590549355972427</v>
+        <v>-1.591887272225533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1097068858661362</v>
+        <v>0.1071664190043569</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2615034876249328</v>
+        <v>-0.2611178529402141</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2264042853184869</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.477263264764614</v>
+        <v>-1.478696409174558</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1231993777739257</v>
+        <v>0.1200119890532918</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2533547906339592</v>
+        <v>-0.2529172133182375</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2342544076157193</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.262201884183058</v>
+        <v>-1.26426148820328</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1599700384666311</v>
+        <v>0.1565890453940772</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2597374381708334</v>
+        <v>-0.2588229330613577</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2422946147760189</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.005155904569489</v>
+        <v>-1.006756682015851</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1820283424325389</v>
+        <v>0.1780980166866511</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2572740982459978</v>
+        <v>-0.2559849765856526</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2495190019180475</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5924173975915829</v>
+        <v>-0.5941677068544693</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1709472478185821</v>
+        <v>0.1670137740344517</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1655607261051707</v>
+        <v>-0.1643455833435265</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2535875373941682</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2195448599084203</v>
+        <v>-0.2209567550602271</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1406410836570586</v>
+        <v>0.1369846372382771</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1297565131529439</v>
+        <v>-0.1285665546972406</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2479887040641756</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2415766338295865</v>
+        <v>0.2402985303030904</v>
       </c>
       <c r="F12" t="n">
-        <v>0.105748227776065</v>
+        <v>0.1019469715981238</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03919060095154495</v>
+        <v>-0.03856099330302468</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2234555225695269</v>
       </c>
       <c r="E13" t="n">
-        <v>0.766653672504283</v>
+        <v>0.7645885594171364</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.003553234026176077</v>
+        <v>-0.006737474708567368</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05474213815031619</v>
+        <v>0.05517814144691648</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1750116767640714</v>
       </c>
       <c r="E14" t="n">
-        <v>1.311586962394188</v>
+        <v>1.309366021414032</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2278855872321927</v>
+        <v>-0.2311201965264656</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1590476632615489</v>
+        <v>0.1589705363246051</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1032048987365778</v>
       </c>
       <c r="E15" t="n">
-        <v>1.872981344254655</v>
+        <v>1.87085799246002</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4393330199112419</v>
+        <v>-0.4429265055651714</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2927385513483441</v>
+        <v>0.2925591131685158</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.0144043751941967</v>
       </c>
       <c r="E16" t="n">
-        <v>2.344593675436131</v>
+        <v>2.342818181867304</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6637487961306875</v>
+        <v>-0.6674634812569571</v>
       </c>
       <c r="G16" t="n">
-        <v>0.437263413047052</v>
+        <v>0.4367392646796588</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.08036207971183085</v>
       </c>
       <c r="E17" t="n">
-        <v>2.799474183358181</v>
+        <v>2.798098490646164</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8771015789560711</v>
+        <v>-0.8806242337495421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5566700776080434</v>
+        <v>0.5555509500127986</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1739493817251753</v>
       </c>
       <c r="E18" t="n">
-        <v>3.221755181258972</v>
+        <v>3.221667036188179</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.205480531127866</v>
+        <v>-1.20858213580639</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6780678763574802</v>
+        <v>0.676988099240268</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2653035164648728</v>
       </c>
       <c r="E19" t="n">
-        <v>3.59585702787587</v>
+        <v>3.596124611126491</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.505082478714482</v>
+        <v>-1.507245180987149</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8391640113652418</v>
+        <v>0.8379583127183254</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.35496052920254</v>
       </c>
       <c r="E20" t="n">
-        <v>3.719683538129474</v>
+        <v>3.72110645141513</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.841339396588387</v>
+        <v>-1.842862260088246</v>
       </c>
       <c r="G20" t="n">
-        <v>1.015745346488359</v>
+        <v>1.013990315168109</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4430083519004857</v>
       </c>
       <c r="E21" t="n">
-        <v>3.969135662492328</v>
+        <v>3.971372343663696</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.07856768845522</v>
+        <v>-2.079086327755689</v>
       </c>
       <c r="G21" t="n">
-        <v>1.183839570509424</v>
+        <v>1.181684738332363</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5289799132556183</v>
       </c>
       <c r="E22" t="n">
-        <v>4.174642747007589</v>
+        <v>4.176013717662241</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.374321946299816</v>
+        <v>-2.374988543397687</v>
       </c>
       <c r="G22" t="n">
-        <v>1.324286148664842</v>
+        <v>1.321811790606157</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6120992150432164</v>
       </c>
       <c r="E23" t="n">
-        <v>4.39993682589672</v>
+        <v>4.401246409805642</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.506079151896094</v>
+        <v>-2.507062913846906</v>
       </c>
       <c r="G23" t="n">
-        <v>1.495849510829253</v>
+        <v>1.492732952969077</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6930096800729615</v>
       </c>
       <c r="E24" t="n">
-        <v>4.527444966875046</v>
+        <v>4.529182683984962</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.620375763379783</v>
+        <v>-2.622093018241122</v>
       </c>
       <c r="G24" t="n">
-        <v>1.599989763932749</v>
+        <v>1.596522199808523</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7727559575354763</v>
       </c>
       <c r="E25" t="n">
-        <v>4.668513282583377</v>
+        <v>4.670435159930485</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.816732287733362</v>
+        <v>-2.818300797787737</v>
       </c>
       <c r="G25" t="n">
-        <v>1.663189779691214</v>
+        <v>1.659714345471382</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8504854061114492</v>
       </c>
       <c r="E26" t="n">
-        <v>4.782220423906139</v>
+        <v>4.783800739103925</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.906796087835065</v>
+        <v>-2.908209557005994</v>
       </c>
       <c r="G26" t="n">
-        <v>1.706297441366276</v>
+        <v>1.702911726236358</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.923446978756127</v>
       </c>
       <c r="E27" t="n">
-        <v>4.892969983299976</v>
+        <v>4.894082814818736</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.979475633751564</v>
+        <v>-2.980986692108013</v>
       </c>
       <c r="G27" t="n">
-        <v>1.756876971810152</v>
+        <v>1.753274042041495</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9888078142252544</v>
       </c>
       <c r="E28" t="n">
-        <v>4.892982575452947</v>
+        <v>4.893303675353692</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069157734216353</v>
+        <v>-3.069994325379324</v>
       </c>
       <c r="G28" t="n">
-        <v>1.798420058478641</v>
+        <v>1.794138726468703</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.043829578090796</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902524279366272</v>
+        <v>4.901935596214906</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083377422958183</v>
+        <v>-3.083565518243179</v>
       </c>
       <c r="G29" t="n">
-        <v>1.729564592017343</v>
+        <v>1.725330480581044</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.085907167316785</v>
       </c>
       <c r="E30" t="n">
-        <v>4.844431955656428</v>
+        <v>4.8434544897821</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073304487591419</v>
+        <v>-3.073318653763511</v>
       </c>
       <c r="G30" t="n">
-        <v>1.693222064525631</v>
+        <v>1.689282294665015</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.112269208829754</v>
       </c>
       <c r="E31" t="n">
-        <v>4.719232900729049</v>
+        <v>4.71813266136326</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.062475236036871</v>
+        <v>-3.061714197791722</v>
       </c>
       <c r="G31" t="n">
-        <v>1.634496985129024</v>
+        <v>1.630524160866861</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.12064484438984</v>
       </c>
       <c r="E32" t="n">
-        <v>4.639439575393832</v>
+        <v>4.637492513740783</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.023921998689292</v>
+        <v>-3.02270921695633</v>
       </c>
       <c r="G32" t="n">
-        <v>1.596766172772325</v>
+        <v>1.593106578315301</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.110560525309086</v>
       </c>
       <c r="E33" t="n">
-        <v>4.561610625921999</v>
+        <v>4.55956754910255</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.954835938426723</v>
+        <v>-2.953643618942338</v>
       </c>
       <c r="G33" t="n">
-        <v>1.56760746855023</v>
+        <v>1.563899079500445</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.083794173761609</v>
       </c>
       <c r="E34" t="n">
-        <v>4.359514440842597</v>
+        <v>4.356725278959652</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.882811184464686</v>
+        <v>-2.88148507335499</v>
       </c>
       <c r="G34" t="n">
-        <v>1.51714441552133</v>
+        <v>1.513645371014678</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.043008798005064</v>
       </c>
       <c r="E35" t="n">
-        <v>4.134524147643877</v>
+        <v>4.132074973891132</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.851376448593189</v>
+        <v>-2.849775671146827</v>
       </c>
       <c r="G35" t="n">
-        <v>1.395734024618922</v>
+        <v>1.392670983408871</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9919162226838047</v>
       </c>
       <c r="E36" t="n">
-        <v>3.98368432123051</v>
+        <v>3.980880993175474</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.826321212220325</v>
+        <v>-2.824515812288193</v>
       </c>
       <c r="G36" t="n">
-        <v>1.369460497446171</v>
+        <v>1.366258942553446</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9335663630865038</v>
       </c>
       <c r="E37" t="n">
-        <v>3.787785049431669</v>
+        <v>3.785003757644331</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.762433350105852</v>
+        <v>-2.76079794423882</v>
       </c>
       <c r="G37" t="n">
-        <v>1.282203173437746</v>
+        <v>1.279212537107275</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8706663996353211</v>
       </c>
       <c r="E38" t="n">
-        <v>3.718301549340972</v>
+        <v>3.715251100283891</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.731333880307193</v>
+        <v>-2.729581997025185</v>
       </c>
       <c r="G38" t="n">
-        <v>1.239141158317202</v>
+        <v>1.236128485719033</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8053709630277649</v>
       </c>
       <c r="E39" t="n">
-        <v>3.508220365259211</v>
+        <v>3.505099085341672</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.749169877980211</v>
+        <v>-2.746882041187401</v>
       </c>
       <c r="G39" t="n">
-        <v>1.164044706039946</v>
+        <v>1.160825836936886</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7387145905899073</v>
       </c>
       <c r="E40" t="n">
-        <v>3.262624587743544</v>
+        <v>3.259127117256014</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.714777560179791</v>
+        <v>-2.712002564468938</v>
       </c>
       <c r="G40" t="n">
-        <v>1.09992388909552</v>
+        <v>1.096694001858611</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6715646131989194</v>
       </c>
       <c r="E41" t="n">
-        <v>3.090595315919228</v>
+        <v>3.08717339834952</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.654288005348206</v>
+        <v>-2.651073071292949</v>
       </c>
       <c r="G41" t="n">
-        <v>1.067969726913995</v>
+        <v>1.064765023983027</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6043464947191693</v>
       </c>
       <c r="E42" t="n">
-        <v>2.976955857418682</v>
+        <v>2.973135713011285</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.623269597534294</v>
+        <v>-2.620292340366353</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9837974803833194</v>
+        <v>0.9806462941024754</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5372191946729536</v>
       </c>
       <c r="E43" t="n">
-        <v>2.843570329041419</v>
+        <v>2.839806849322389</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.60658892989631</v>
+        <v>-2.60347945512218</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9316974474682665</v>
+        <v>0.9285399651109374</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4696388860020708</v>
       </c>
       <c r="E44" t="n">
-        <v>2.715379063764449</v>
+        <v>2.710872647020165</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.534736531028055</v>
+        <v>-2.531763208907918</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8674129325352252</v>
+        <v>0.8646033084037035</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4017161464143925</v>
       </c>
       <c r="E45" t="n">
-        <v>2.518592045181194</v>
+        <v>2.514386266089079</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.469348628690982</v>
+        <v>-2.466340678150176</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8375474937276659</v>
+        <v>0.8345395431868603</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3335129755912461</v>
       </c>
       <c r="E46" t="n">
-        <v>2.392859397771695</v>
+        <v>2.38843640404084</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.429582609610441</v>
+        <v>-2.427000431241947</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7741648917511299</v>
+        <v>0.771265548529694</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2653113138817834</v>
       </c>
       <c r="E47" t="n">
-        <v>2.229921660392012</v>
+        <v>2.22527200790769</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.294354691851696</v>
+        <v>-2.291819734056841</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7177347322333789</v>
+        <v>0.7149754767137388</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1971235949232311</v>
       </c>
       <c r="E48" t="n">
-        <v>2.141976490027579</v>
+        <v>2.137345725772712</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.253231081279033</v>
+        <v>-2.251103007427035</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6690267105247291</v>
+        <v>0.6662753251006955</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1288215584405964</v>
       </c>
       <c r="E49" t="n">
-        <v>1.98878665306611</v>
+        <v>1.984067743740451</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.20134826300272</v>
+        <v>-2.199212319055115</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5944433884810173</v>
+        <v>0.5919769005179392</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06070437615671477</v>
       </c>
       <c r="E50" t="n">
-        <v>1.895864434240124</v>
+        <v>1.890610358413223</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.153923853887491</v>
+        <v>-2.151783187882522</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5376999991581275</v>
+        <v>0.5352807317686884</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.007132696069521802</v>
       </c>
       <c r="E51" t="n">
-        <v>1.772052090158612</v>
+        <v>1.766580799692971</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.103950320805315</v>
+        <v>-2.101752203102419</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4924438013824902</v>
+        <v>0.490391280448314</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.07476793352357579</v>
       </c>
       <c r="E52" t="n">
-        <v>1.660781530435624</v>
+        <v>1.654652299977279</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.985565194654048</v>
+        <v>-1.983697620966625</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4569528182354022</v>
+        <v>0.4547428953890961</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1414402789692725</v>
       </c>
       <c r="E53" t="n">
-        <v>1.617447210007095</v>
+        <v>1.611465937346152</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.926119214499885</v>
+        <v>-1.924098173948135</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3856891025185136</v>
+        <v>0.3834964938825418</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2064358734184942</v>
       </c>
       <c r="E54" t="n">
-        <v>1.57436001058061</v>
+        <v>1.568120598783774</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.915821981408336</v>
+        <v>-1.913669510259957</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3512228058193925</v>
+        <v>0.349236393688311</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2695708869192602</v>
       </c>
       <c r="E55" t="n">
-        <v>1.519703770612564</v>
+        <v>1.513003171213188</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.850488382730948</v>
+        <v>-1.848719972248166</v>
       </c>
       <c r="G55" t="n">
-        <v>0.324229951908207</v>
+        <v>0.3223710353259508</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3307720992033449</v>
       </c>
       <c r="E56" t="n">
-        <v>1.461428860684649</v>
+        <v>1.455384627258854</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.788464159256094</v>
+        <v>-1.786968841090858</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2166504670246688</v>
+        <v>0.2149694146031197</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3901439709189391</v>
       </c>
       <c r="E57" t="n">
-        <v>1.471948030472302</v>
+        <v>1.464726430743774</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.786345529518823</v>
+        <v>-1.784512584252069</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2176861716064847</v>
+        <v>0.2156714271312198</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4474155030051707</v>
       </c>
       <c r="E58" t="n">
-        <v>1.457367891351693</v>
+        <v>1.449669363829412</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.771291610642703</v>
+        <v>-1.76973805376998</v>
       </c>
       <c r="G58" t="n">
-        <v>0.213300954334541</v>
+        <v>0.2111398260809951</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5016937975738699</v>
       </c>
       <c r="E59" t="n">
-        <v>1.445717001815826</v>
+        <v>1.437972827739026</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.734846771908107</v>
+        <v>-1.733172802572604</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1393535360158347</v>
+        <v>0.1371656494372267</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5522889099078996</v>
       </c>
       <c r="E60" t="n">
-        <v>1.478741496999835</v>
+        <v>1.471063431726131</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.767284944969433</v>
+        <v>-1.7655275526205</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1191887770528516</v>
+        <v>0.1169253375564212</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5994650268899566</v>
       </c>
       <c r="E61" t="n">
-        <v>1.476690550084781</v>
+        <v>1.468626850126357</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.785620693713464</v>
+        <v>-1.783919966052899</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1316030658625501</v>
+        <v>0.1292687955056612</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6431911889609231</v>
       </c>
       <c r="E62" t="n">
-        <v>1.487891270151956</v>
+        <v>1.479232590965681</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.8296648967657</v>
+        <v>-1.827654087338239</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04408917673735314</v>
+        <v>0.04172972207452341</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6836777735511775</v>
       </c>
       <c r="E63" t="n">
-        <v>1.474797005081856</v>
+        <v>1.465633065757643</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.790738616886373</v>
+        <v>-1.788418512701576</v>
       </c>
       <c r="G63" t="n">
-        <v>0.009703155013418315</v>
+        <v>0.00756091498932808</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7208769393857402</v>
       </c>
       <c r="E64" t="n">
-        <v>1.476553610421228</v>
+        <v>1.46704496090945</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.818246175050224</v>
+        <v>-1.815955190219171</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02071476450571747</v>
+        <v>-0.0226067354895209</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7539597132593491</v>
       </c>
       <c r="E65" t="n">
-        <v>1.487271106618164</v>
+        <v>1.477049426444437</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.8437271835954</v>
+        <v>-1.841418884554013</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02363929203309416</v>
+        <v>-0.02583504870730861</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7819402096965306</v>
       </c>
       <c r="E66" t="n">
-        <v>1.450927005107331</v>
+        <v>1.440516442639048</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.849056025330564</v>
+        <v>-1.84664305401761</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03183678361682814</v>
+        <v>-0.0342639211018738</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8041339698552427</v>
       </c>
       <c r="E67" t="n">
-        <v>1.416635424530674</v>
+        <v>1.406031257710471</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.860846215558667</v>
+        <v>-1.858415143025818</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.0509768561318445</v>
+        <v>-0.05328594218279261</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.821432776878501</v>
       </c>
       <c r="E68" t="n">
-        <v>1.36654226599528</v>
+        <v>1.355979023672231</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.890710867356665</v>
+        <v>-1.888327802407016</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05847390920659967</v>
+        <v>-0.06038004636249481</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8345678932647005</v>
       </c>
       <c r="E69" t="n">
-        <v>1.262474417771364</v>
+        <v>1.252238571425545</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.912086834033489</v>
+        <v>-1.909747841619236</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08063609843451336</v>
+        <v>-0.08276417228651189</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8440298342246986</v>
       </c>
       <c r="E70" t="n">
-        <v>1.278913473474228</v>
+        <v>1.268940488321667</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.917575438709465</v>
+        <v>-1.914693409698363</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04929108165293147</v>
+        <v>-0.05161275985684997</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.84890692445116</v>
       </c>
       <c r="E71" t="n">
-        <v>1.271587988483694</v>
+        <v>1.261847958161086</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.951748180842463</v>
+        <v>-1.949195121827714</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06919927549914257</v>
+        <v>-0.07116050332428323</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8477189154428465</v>
       </c>
       <c r="E72" t="n">
-        <v>1.254925422065605</v>
+        <v>1.245734724416331</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.981342101351598</v>
+        <v>-1.97847659954127</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1042668475026006</v>
+        <v>-0.1061997429835578</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8401013509711145</v>
       </c>
       <c r="E73" t="n">
-        <v>1.259472763307043</v>
+        <v>1.250773159623614</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.981117016617252</v>
+        <v>-1.978189341051633</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09156451319370404</v>
+        <v>-0.09351787092323818</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8258949911683928</v>
       </c>
       <c r="E74" t="n">
-        <v>1.25340649361355</v>
+        <v>1.245840183697458</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.989095719543125</v>
+        <v>-1.9861601738819</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07234573972262263</v>
+        <v>-0.07442974103922474</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8054331306205651</v>
       </c>
       <c r="E75" t="n">
-        <v>1.197262805575876</v>
+        <v>1.190392212111399</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.021865223629484</v>
+        <v>-2.018873800289453</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04440060424305023</v>
+        <v>-0.046404330584466</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7788979728799266</v>
       </c>
       <c r="E76" t="n">
-        <v>1.231917984569553</v>
+        <v>1.226342808841906</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.025086453761226</v>
+        <v>-2.02221072082661</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02458527752499587</v>
+        <v>-0.02643160195428157</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7468028460285028</v>
       </c>
       <c r="E77" t="n">
-        <v>1.165385770331294</v>
+        <v>1.161719879797785</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.022762414528626</v>
+        <v>-2.019589978989644</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02616244468453916</v>
+        <v>-0.028098488203739</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7095954184470444</v>
       </c>
       <c r="E78" t="n">
-        <v>1.184381033087151</v>
+        <v>1.181805937804703</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.03338074752092</v>
+        <v>-2.030190997771605</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.021220024643655</v>
+        <v>-0.02277358151637877</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6673593245517645</v>
       </c>
       <c r="E79" t="n">
-        <v>1.169339706364002</v>
+        <v>1.168286687571852</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.010584228587122</v>
+        <v>-2.006897875805036</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04283760325559864</v>
+        <v>-0.04446671304614486</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.620436205385368</v>
       </c>
       <c r="E80" t="n">
-        <v>1.147246773977425</v>
+        <v>1.147561577801685</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.971949142245236</v>
+        <v>-1.969090723520954</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02674325774029911</v>
+        <v>-0.02804182351537218</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5693101923641467</v>
       </c>
       <c r="E81" t="n">
-        <v>1.171378061126086</v>
+        <v>1.172353952981293</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.925091380013676</v>
+        <v>-1.922380919086796</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.007143571641862946</v>
+        <v>-0.008100575267613765</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5139055091834289</v>
       </c>
       <c r="E82" t="n">
-        <v>1.229446774549111</v>
+        <v>1.231425316584586</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.953387521757298</v>
+        <v>-1.950640071381068</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02055444283566526</v>
+        <v>0.01971076858664809</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4546043895188551</v>
       </c>
       <c r="E83" t="n">
-        <v>1.315961161532282</v>
+        <v>1.318322190214233</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.84814309424021</v>
+        <v>-1.846163765195174</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01296452263275334</v>
+        <v>0.01216177288088999</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3923819707255137</v>
       </c>
       <c r="E84" t="n">
-        <v>1.309534441460011</v>
+        <v>1.312621092956882</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.787002682501966</v>
+        <v>-1.785511299384534</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0234018434260982</v>
+        <v>0.02265890640084428</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3286039012903918</v>
       </c>
       <c r="E85" t="n">
-        <v>1.41849434111293</v>
+        <v>1.421359055913697</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.758985929152375</v>
+        <v>-1.757744815075229</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01695308708612928</v>
+        <v>0.0165186578086503</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.264779502462448</v>
       </c>
       <c r="E86" t="n">
-        <v>1.663992529443077</v>
+        <v>1.66608912291265</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.654089359861094</v>
+        <v>-1.653594330847445</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03263818762989064</v>
+        <v>0.03245402739269845</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2031142075870822</v>
       </c>
       <c r="E87" t="n">
-        <v>1.597834931755688</v>
+        <v>1.600068464888814</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.534161694970952</v>
+        <v>-1.53392952715056</v>
       </c>
       <c r="G87" t="n">
-        <v>0.053385333667755</v>
+        <v>0.05329718859696216</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1468802504130944</v>
       </c>
       <c r="E88" t="n">
-        <v>1.74575337867992</v>
+        <v>1.747116479238967</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.334077893338133</v>
+        <v>-1.334241591326748</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09006942330878884</v>
+        <v>0.08996553804678299</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09984123783097837</v>
       </c>
       <c r="E89" t="n">
-        <v>1.913738995381615</v>
+        <v>1.914080557530937</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158815586238665</v>
+        <v>-1.159382233122333</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1138135017536097</v>
+        <v>0.1136592478797222</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06479184899198338</v>
       </c>
       <c r="E90" t="n">
-        <v>1.934712800172947</v>
+        <v>1.934723818306796</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9180835278078165</v>
+        <v>-0.9192341357854873</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1426873085147495</v>
+        <v>0.14247009387601</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04312882997767559</v>
       </c>
       <c r="E91" t="n">
-        <v>1.973180253478414</v>
+        <v>1.972970908935281</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6652787427165917</v>
+        <v>-0.667494961639383</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09563200688346546</v>
+        <v>0.09552339956409571</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.03505424459954374</v>
       </c>
       <c r="E92" t="n">
-        <v>1.989483943536847</v>
+        <v>1.988408888476998</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4597134194938432</v>
+        <v>-0.4623404574072941</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1069240200596766</v>
+        <v>0.1067792103005169</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04016722456126313</v>
       </c>
       <c r="E93" t="n">
-        <v>1.962868854214773</v>
+        <v>1.961817409441744</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2390280685918803</v>
+        <v>-0.2416472364097246</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09187482324092072</v>
+        <v>0.09201963300008038</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05623093061274767</v>
       </c>
       <c r="E94" t="n">
-        <v>1.849981776854209</v>
+        <v>1.849237265809834</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05583742717842102</v>
+        <v>-0.05862658906136584</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06660552026755948</v>
+        <v>0.06673458983550613</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07908964312977666</v>
       </c>
       <c r="E95" t="n">
-        <v>1.798994575457916</v>
+        <v>1.797762118485938</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07541215725123683</v>
+        <v>0.07252540618277137</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05426993241392599</v>
+        <v>0.05427465447128989</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1032106628654955</v>
       </c>
       <c r="E96" t="n">
-        <v>1.670768681760277</v>
+        <v>1.66974399531231</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1482955386439439</v>
+        <v>0.1458369207764722</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005360207977429267</v>
+        <v>-0.005237434485967813</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.123251098504419</v>
       </c>
       <c r="E97" t="n">
-        <v>1.505101595224258</v>
+        <v>1.503916358825919</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1520731845350655</v>
+        <v>0.1500017753714338</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02067226598944236</v>
+        <v>-0.02041727489179165</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1380708805492752</v>
       </c>
       <c r="E98" t="n">
-        <v>1.391369269595556</v>
+        <v>1.390347731185831</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1800198940337592</v>
+        <v>0.1781216269734706</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05901064972696321</v>
+        <v>-0.05845502097714407</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1491770317907765</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251591649566691</v>
+        <v>1.250662978285123</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1828893308918904</v>
+        <v>0.1811893902408857</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09867120952637665</v>
+        <v>-0.0981250248912853</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1622404561375468</v>
       </c>
       <c r="E100" t="n">
-        <v>1.09227573018512</v>
+        <v>1.091526497083381</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2389732062029552</v>
+        <v>0.2372181748827049</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1458980792418825</v>
+        <v>-0.1453015259949095</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.177973803606232</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9102907874185773</v>
+        <v>0.9097146964201812</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2210026298950653</v>
+        <v>0.2192806529763623</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1717749535960658</v>
+        <v>-0.1709548896338681</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1989374793462761</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8504780608091511</v>
+        <v>0.8498342869885391</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2590954666496632</v>
+        <v>0.2575592239872737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2097938114519626</v>
+        <v>-0.2089737474897649</v>
       </c>
     </row>
   </sheetData>
